--- a/biology/Botanique/Banksia_marginata/Banksia_marginata.xlsx
+++ b/biology/Botanique/Banksia_marginata/Banksia_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia marginata, le banksia argenté, est une espèce de plantes à fleurs du genre Banksia et de la famille des Proteaceae. C'est un arbre de 8 mètres de haut originaire du sud-est de l'Australie. On le rencontre depuis la péninsule d'Eyre en Australie-Méridionale jusqu'à Armidale (Nouvelle-Galles du Sud) au nord, ainsi qu'en Tasmanie et dans les îles Flinders et King.
 Il croît dans des conditions arides et a des stomates enfoncés.
@@ -512,10 +524,12 @@
           <t>Autres utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Banksia marginata est également utilisé en bonsaï[1].
-Mesostoa kerri provoque des galles de la tige sur Banksia marginata[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Banksia marginata est également utilisé en bonsaï.
+Mesostoa kerri provoque des galles de la tige sur Banksia marginata.</t>
         </is>
       </c>
     </row>
